--- a/addons/ExcelGenerate/Excel/VTuberConfig.xlsx
+++ b/addons/ExcelGenerate/Excel/VTuberConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VTuberDuel\addons\ExcelGenerate\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\Projects\VTuberDuel\addons\ExcelGenerate\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8806911-B6D2-4D1F-9D9C-FFA2F5AAEC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A8DA6D-3C15-42FD-A29E-C199DF5D2028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="25600" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VTuberConfig" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,25 +67,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001|1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001|1004</t>
-  </si>
-  <si>
-    <t>1001|1005</t>
-  </si>
-  <si>
-    <t>1001|1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能组Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星瞳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001|10002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -431,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,7 +491,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
